--- a/supplementary/Expanded Reproduction/Expanded Reproduction Only.xlsx
+++ b/supplementary/Expanded Reproduction/Expanded Reproduction Only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afree\Documents\Our Works\Catalogued Works\2019\2019ba Moscow Plekhanov University\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afree\Documents\My Works\REPOS\simulation-api\supplementary\Expanded Reproduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C01167-463B-475A-8B62-E04DF3EDB1D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4197F320-6AD7-4109-B37B-555BA85B9807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="24813" windowHeight="14586" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
+    <workbookView xWindow="1286" yWindow="1011" windowWidth="8931" windowHeight="9635" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Marx 1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -387,7 +392,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -624,7 +629,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -650,11 +655,9 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -687,9 +690,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -768,7 +768,9 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{ED0B89C5-422D-44D5-B104-31F97A234A2E}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -781,9 +783,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -821,7 +823,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -927,7 +929,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1069,7 +1071,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1083,79 +1085,79 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.05859375" customWidth="1"/>
-    <col min="4" max="4" width="6.76171875" customWidth="1"/>
-    <col min="5" max="5" width="7.46875" customWidth="1"/>
-    <col min="6" max="6" width="7.234375" customWidth="1"/>
-    <col min="7" max="7" width="10.3515625" customWidth="1"/>
-    <col min="8" max="8" width="6.703125" customWidth="1"/>
-    <col min="9" max="9" width="6.234375" customWidth="1"/>
+    <col min="3" max="3" width="9.07421875" customWidth="1"/>
+    <col min="4" max="4" width="6.765625" customWidth="1"/>
+    <col min="5" max="5" width="7.4609375" customWidth="1"/>
+    <col min="6" max="6" width="7.23046875" customWidth="1"/>
+    <col min="7" max="7" width="10.3828125" customWidth="1"/>
+    <col min="8" max="8" width="6.69140625" customWidth="1"/>
+    <col min="9" max="9" width="6.23046875" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5859375" customWidth="1"/>
-    <col min="12" max="12" width="8.703125" customWidth="1"/>
-    <col min="13" max="13" width="10.5859375" customWidth="1"/>
-    <col min="14" max="14" width="11.87890625" customWidth="1"/>
-    <col min="15" max="15" width="8.9375" style="3"/>
-    <col min="19" max="19" width="13.29296875" customWidth="1"/>
-    <col min="20" max="20" width="10.17578125" customWidth="1"/>
+    <col min="11" max="11" width="9.61328125" customWidth="1"/>
+    <col min="12" max="12" width="8.69140625" customWidth="1"/>
+    <col min="13" max="13" width="10.61328125" customWidth="1"/>
+    <col min="14" max="14" width="11.84375" customWidth="1"/>
+    <col min="15" max="15" width="8.921875" style="3"/>
+    <col min="19" max="19" width="13.3046875" customWidth="1"/>
+    <col min="20" max="20" width="10.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="7">
         <v>0.1</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
       <c r="O1"/>
-      <c r="Q1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="75"/>
-    </row>
-    <row r="2" spans="2:20" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="C2" s="66" t="s">
+      <c r="Q1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="72"/>
+    </row>
+    <row r="2" spans="2:20" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="67" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="27" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -1177,43 +1179,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="64">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="61">
         <v>4000</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="61">
         <v>1000</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="61">
         <v>1000</v>
       </c>
       <c r="F3">
         <f>SUM(C3:E3)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="67">
         <f>H3+I3</f>
         <v>500</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="67">
         <f>C3*$D$1</f>
         <v>400</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="67">
         <f>D9-D3</f>
         <v>100</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="63">
+      <c r="L3" s="60">
         <f>D3</f>
         <v>1000</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="59" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="10">
@@ -1232,43 +1234,43 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B4" s="34" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="61">
         <v>1500</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="61">
         <v>750</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="61">
         <v>750</v>
       </c>
       <c r="F4">
         <f>SUM(C4:E4)</f>
         <v>3000</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="67">
         <f>H4+I4</f>
         <v>150</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="67">
         <f>C6-H3</f>
         <v>100</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="67">
         <f>D10-D4</f>
         <v>50</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="60">
         <f>D4</f>
         <v>750</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="59" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="10">
@@ -1288,49 +1290,49 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="62">
         <f>SUM(C3:C4)</f>
         <v>5500</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="62">
         <f t="shared" ref="D5:F5" si="0">SUM(D3:D4)</f>
         <v>1750</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="62">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="68">
         <f>H5+I5</f>
         <v>650</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="69">
         <f>SUM(H3:H4)</f>
         <v>500</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="69">
         <f>SUM(I3:I4)</f>
         <v>150</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="60">
         <f>D5</f>
         <v>1750</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="53">
         <f>D5/C5</f>
         <v>0.31818181818181818</v>
       </c>
@@ -1339,17 +1341,17 @@
         <v>0.2413793103448276</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="37">
         <f>F3-C5</f>
         <v>500</v>
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1360,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -1464,39 +1466,39 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B11" s="57" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="54">
         <f>SUM(C9:C10)</f>
         <v>6000</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="54">
         <f t="shared" ref="D11:F11" si="1">SUM(D9:D10)</f>
         <v>1900</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="54">
         <f t="shared" si="1"/>
         <v>9800</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="55">
         <f>H11+I11</f>
         <v>790</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="54">
         <f>SUM(H9:H10)</f>
         <v>600</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="54">
         <f t="shared" ref="I11" si="2">SUM(I9:I10)</f>
         <v>190</v>
       </c>
-      <c r="J11" s="57"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="2">
         <f>E5-G5</f>
         <v>1100</v>
@@ -1509,7 +1511,7 @@
         <f>K11+L11</f>
         <v>3000</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="53">
         <f>D11/C11</f>
         <v>0.31666666666666665</v>
       </c>
@@ -1523,11 +1525,11 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B12" s="59" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="56">
         <f>F9-C11</f>
         <v>600</v>
       </c>
@@ -1535,28 +1537,28 @@
       <c r="E12" s="1"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B13" s="39" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="N13" s="61">
+      <c r="C13" s="37"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="N13" s="58">
         <f>F10/F9</f>
         <v>0.48484848484848486</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="N14" s="61"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="N14" s="58"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1608,7 +1610,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -1663,39 +1665,39 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B17" s="57" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="54">
         <f>SUM(C15:C16)</f>
         <v>6600</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="54">
         <f t="shared" ref="D17:F17" si="3">SUM(D15:D16)</f>
         <v>2090</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <f t="shared" si="3"/>
         <v>2090</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="54">
         <f t="shared" si="3"/>
         <v>10780</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="55">
         <f>H17+I17</f>
         <v>869</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="54">
         <f>SUM(H15:H16)</f>
         <v>660</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="54">
         <f t="shared" ref="I17" si="4">SUM(I15:I16)</f>
         <v>209</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="2">
         <f>E11-G11</f>
         <v>1110</v>
@@ -1708,7 +1710,7 @@
         <f>K17+L17</f>
         <v>3200</v>
       </c>
-      <c r="N17" s="56">
+      <c r="N17" s="53">
         <f>D17/C17</f>
         <v>0.31666666666666665</v>
       </c>
@@ -1721,7 +1723,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1733,7 +1735,7 @@
       <c r="E18" s="1"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -1742,10 +1744,10 @@
         <v>0.48484848484848486</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +1799,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -1852,7 +1854,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1909,9 +1911,9 @@
         <f>F22/F16</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q23" s="55"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="Q23" s="52"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1929,10 +1931,10 @@
         <v>0.48484848484848486</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +1986,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
@@ -2096,9 +2098,9 @@
         <f>F27/F22</f>
         <v>1.0999999999999999</v>
       </c>
-      <c r="Q28" s="54"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="Q28" s="51"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
@@ -2116,10 +2118,10 @@
         <v>0.48484848484848481</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -2171,7 +2173,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -2226,7 +2228,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
@@ -2283,9 +2285,9 @@
         <f>F32/F27</f>
         <v>1.1000000000000003</v>
       </c>
-      <c r="Q33" s="54"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="Q33" s="51"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
@@ -2303,10 +2305,10 @@
         <v>0.48484848484848486</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -2342,7 +2344,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>1</v>
       </c>
@@ -2381,7 +2383,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
@@ -2427,7 +2429,7 @@
         <v>1.0999999999999996</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>0.48484848484848464</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2458,7 +2460,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2472,7 +2474,7 @@
       <c r="M42" s="2"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2487,13 +2489,13 @@
       <c r="M43" s="1"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -2506,7 +2508,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2520,7 +2522,7 @@
       <c r="M47" s="2"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2535,13 +2537,13 @@
       <c r="M48" s="1"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2554,7 +2556,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2568,7 +2570,7 @@
       <c r="M52" s="2"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2583,7 +2585,7 @@
       <c r="M53" s="1"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2610,76 +2612,76 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.05859375" customWidth="1"/>
-    <col min="4" max="4" width="6.76171875" customWidth="1"/>
-    <col min="5" max="5" width="7.46875" customWidth="1"/>
-    <col min="6" max="6" width="9.9375" customWidth="1"/>
-    <col min="7" max="7" width="10.3515625" customWidth="1"/>
-    <col min="8" max="8" width="6.703125" customWidth="1"/>
-    <col min="9" max="9" width="6.234375" customWidth="1"/>
+    <col min="3" max="3" width="9.07421875" customWidth="1"/>
+    <col min="4" max="4" width="6.765625" customWidth="1"/>
+    <col min="5" max="5" width="7.4609375" customWidth="1"/>
+    <col min="6" max="6" width="9.921875" customWidth="1"/>
+    <col min="7" max="7" width="10.3828125" customWidth="1"/>
+    <col min="8" max="8" width="6.69140625" customWidth="1"/>
+    <col min="9" max="9" width="6.23046875" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5859375" customWidth="1"/>
-    <col min="12" max="12" width="8.703125" customWidth="1"/>
-    <col min="13" max="13" width="10.5859375" customWidth="1"/>
-    <col min="14" max="14" width="11.87890625" customWidth="1"/>
-    <col min="15" max="15" width="8.9375" style="3"/>
-    <col min="19" max="19" width="13.29296875" customWidth="1"/>
-    <col min="20" max="20" width="10.17578125" customWidth="1"/>
+    <col min="11" max="11" width="9.61328125" customWidth="1"/>
+    <col min="12" max="12" width="8.69140625" customWidth="1"/>
+    <col min="13" max="13" width="10.61328125" customWidth="1"/>
+    <col min="14" max="14" width="11.84375" customWidth="1"/>
+    <col min="15" max="15" width="8.921875" style="3"/>
+    <col min="19" max="19" width="13.3046875" customWidth="1"/>
+    <col min="20" max="20" width="10.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="7">
         <v>0</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
       <c r="O1"/>
-      <c r="Q1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="75"/>
-    </row>
-    <row r="2" spans="2:20" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="C2" s="66" t="s">
+      <c r="Q1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="72"/>
+    </row>
+    <row r="2" spans="2:20" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="67" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="27" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -2701,43 +2703,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="64">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="61">
         <v>4000</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="61">
         <v>1000</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="61">
         <v>1000</v>
       </c>
       <c r="F3">
         <f>SUM(C3:E3)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="67">
         <f>H3+I3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="67">
         <f>C3*$D$1</f>
         <v>0</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="67">
         <f>D9-D3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="63">
+      <c r="L3" s="60">
         <f>D3</f>
         <v>1000</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="59" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="10">
@@ -2756,43 +2758,43 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B4" s="34" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="61">
         <v>1500</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="61">
         <v>750</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="61">
         <v>750</v>
       </c>
       <c r="F4">
         <f>SUM(C4:E4)</f>
         <v>3000</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="67">
         <f>H4+I4</f>
         <v>750</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="67">
         <f>C6-H3</f>
         <v>500</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="67">
         <f>D10-D4</f>
         <v>250</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="60">
         <f>D4</f>
         <v>750</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="59" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="10">
@@ -2812,49 +2814,49 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="62">
         <f>SUM(C3:C4)</f>
         <v>5500</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="62">
         <f t="shared" ref="D5:F5" si="0">SUM(D3:D4)</f>
         <v>1750</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="62">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="68">
         <f>H5+I5</f>
         <v>750</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="69">
         <f>SUM(H3:H4)</f>
         <v>500</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="69">
         <f>SUM(I3:I4)</f>
         <v>250</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="60">
         <f>D5</f>
         <v>1750</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="53">
         <f>D5/C5</f>
         <v>0.31818181818181818</v>
       </c>
@@ -2863,17 +2865,17 @@
         <v>0.2413793103448276</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="37">
         <f>F3-C5</f>
         <v>500</v>
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -2882,7 +2884,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +2935,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -2988,39 +2990,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B11" s="57" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="54">
         <f>SUM(C9:C10)</f>
         <v>6000</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="54">
         <f t="shared" ref="D11:F11" si="1">SUM(D9:D10)</f>
         <v>2000</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="54">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="55">
         <f>H11+I11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="54">
         <f>SUM(H9:H10)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="54">
         <f t="shared" ref="I11" si="2">SUM(I9:I10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="57"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="2">
         <f>E5-G5</f>
         <v>1000</v>
@@ -3033,7 +3035,7 @@
         <f>K11+L11</f>
         <v>3000</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="53">
         <f>D11/C11</f>
         <v>0.33333333333333331</v>
       </c>
@@ -3047,11 +3049,11 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B12" s="59" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="56">
         <f>F9-C11</f>
         <v>0</v>
       </c>
@@ -3059,28 +3061,28 @@
       <c r="E12" s="1"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B13" s="39" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="N13" s="61">
+      <c r="C13" s="37"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="N13" s="58">
         <f>F10/F9</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="N14" s="61"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="N14" s="58"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -3132,7 +3134,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -3187,39 +3189,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B17" s="57" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="54">
         <f>SUM(C15:C16)</f>
         <v>6000</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="54">
         <f t="shared" ref="D17:F17" si="3">SUM(D15:D16)</f>
         <v>2000</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="54">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="55">
         <f>H17+I17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="54">
         <f>SUM(H15:H16)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="54">
         <f t="shared" ref="I17" si="4">SUM(I15:I16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="2">
         <f>E11-G11</f>
         <v>2000</v>
@@ -3232,7 +3234,7 @@
         <f>K17+L17</f>
         <v>4000</v>
       </c>
-      <c r="N17" s="56">
+      <c r="N17" s="53">
         <f>D17/C17</f>
         <v>0.33333333333333331</v>
       </c>
@@ -3245,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
@@ -3257,7 +3259,7 @@
       <c r="E18" s="1"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -3266,10 +3268,10 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -3321,7 +3323,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -3376,7 +3378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3433,9 +3435,9 @@
         <f>F22/F16</f>
         <v>1</v>
       </c>
-      <c r="Q23" s="55"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="Q23" s="52"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
@@ -3453,10 +3455,10 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +3510,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3620,9 +3622,9 @@
         <f>F27/F22</f>
         <v>1</v>
       </c>
-      <c r="Q28" s="54"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="Q28" s="51"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
@@ -3640,10 +3642,10 @@
         <v>0.60606060606060608</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -3695,7 +3697,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -3750,7 +3752,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
@@ -3807,9 +3809,9 @@
         <f>F32/F27</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q33" s="54"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="Q33" s="51"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
@@ -3827,10 +3829,10 @@
         <v>0.60606060606060608</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -3866,7 +3868,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>1</v>
       </c>
@@ -3905,7 +3907,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
@@ -3951,7 +3953,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
@@ -3969,7 +3971,7 @@
         <v>0.60606060606060608</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3982,7 +3984,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3996,7 +3998,7 @@
       <c r="M42" s="2"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4011,13 +4013,13 @@
       <c r="M43" s="1"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -4030,7 +4032,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4044,7 +4046,7 @@
       <c r="M47" s="2"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -4059,13 +4061,13 @@
       <c r="M48" s="1"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4078,7 +4080,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4092,7 +4094,7 @@
       <c r="M52" s="2"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -4107,7 +4109,7 @@
       <c r="M53" s="1"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -4134,76 +4136,76 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.05859375" customWidth="1"/>
-    <col min="4" max="4" width="6.76171875" customWidth="1"/>
-    <col min="5" max="5" width="7.46875" customWidth="1"/>
-    <col min="6" max="6" width="9.9375" customWidth="1"/>
-    <col min="7" max="7" width="10.3515625" customWidth="1"/>
-    <col min="8" max="8" width="6.703125" customWidth="1"/>
-    <col min="9" max="9" width="6.234375" customWidth="1"/>
+    <col min="3" max="3" width="9.07421875" customWidth="1"/>
+    <col min="4" max="4" width="6.765625" customWidth="1"/>
+    <col min="5" max="5" width="7.4609375" customWidth="1"/>
+    <col min="6" max="6" width="9.921875" customWidth="1"/>
+    <col min="7" max="7" width="10.3828125" customWidth="1"/>
+    <col min="8" max="8" width="6.69140625" customWidth="1"/>
+    <col min="9" max="9" width="6.23046875" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5859375" customWidth="1"/>
-    <col min="12" max="12" width="8.703125" customWidth="1"/>
-    <col min="13" max="13" width="10.5859375" customWidth="1"/>
-    <col min="14" max="14" width="11.87890625" customWidth="1"/>
-    <col min="15" max="15" width="8.9375" style="3"/>
-    <col min="19" max="19" width="13.29296875" customWidth="1"/>
-    <col min="20" max="20" width="10.17578125" customWidth="1"/>
+    <col min="11" max="11" width="9.61328125" customWidth="1"/>
+    <col min="12" max="12" width="8.69140625" customWidth="1"/>
+    <col min="13" max="13" width="10.61328125" customWidth="1"/>
+    <col min="14" max="14" width="11.84375" customWidth="1"/>
+    <col min="15" max="15" width="8.921875" style="3"/>
+    <col min="19" max="19" width="13.3046875" customWidth="1"/>
+    <col min="20" max="20" width="10.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="7">
         <v>0.05</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
       <c r="O1"/>
-      <c r="Q1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="75"/>
-    </row>
-    <row r="2" spans="2:20" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="C2" s="66" t="s">
+      <c r="Q1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="72"/>
+    </row>
+    <row r="2" spans="2:20" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="67" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="27" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -4225,43 +4227,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="64">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="61">
         <v>4000</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="61">
         <v>1000</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="61">
         <v>1000</v>
       </c>
       <c r="F3">
         <f>SUM(C3:E3)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="67">
         <f>H3+I3</f>
         <v>250</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="67">
         <f>C3*$D$1</f>
         <v>200</v>
       </c>
-      <c r="I3" s="70">
+      <c r="I3" s="67">
         <f>D9-D3</f>
         <v>50</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="63">
+      <c r="L3" s="60">
         <f>D3</f>
         <v>1000</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="59" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="10">
@@ -4280,43 +4282,43 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B4" s="34" t="s">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="61">
         <v>1500</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="61">
         <v>750</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="61">
         <v>750</v>
       </c>
       <c r="F4">
         <f>SUM(C4:E4)</f>
         <v>3000</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="67">
         <f>H4+I4</f>
         <v>450</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="67">
         <f>C6-H3</f>
         <v>300</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="67">
         <f>D10-D4</f>
         <v>150</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="60">
         <f>D4</f>
         <v>750</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="59" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="10">
@@ -4336,49 +4338,49 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="62">
         <f>SUM(C3:C4)</f>
         <v>5500</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="62">
         <f t="shared" ref="D5:F5" si="0">SUM(D3:D4)</f>
         <v>1750</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="62">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="68">
         <f>H5+I5</f>
         <v>700</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="69">
         <f>SUM(H3:H4)</f>
         <v>500</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="69">
         <f>SUM(I3:I4)</f>
         <v>200</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="60">
         <f>D5</f>
         <v>1750</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="53">
         <f>D5/C5</f>
         <v>0.31818181818181818</v>
       </c>
@@ -4387,17 +4389,17 @@
         <v>0.2413793103448276</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B6" s="39" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="37">
         <f>F3-C5</f>
         <v>500</v>
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -4406,7 +4408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -4457,7 +4459,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>1</v>
       </c>
@@ -4512,39 +4514,39 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B11" s="57" t="s">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="54">
         <f>SUM(C9:C10)</f>
         <v>6000</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="54">
         <f t="shared" ref="D11:F11" si="1">SUM(D9:D10)</f>
         <v>1950</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <f t="shared" si="1"/>
         <v>1950</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="54">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="55">
         <f>H11+I11</f>
         <v>397.5</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="54">
         <f>SUM(H9:H10)</f>
         <v>300</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="54">
         <f t="shared" ref="I11" si="2">SUM(I9:I10)</f>
         <v>97.5</v>
       </c>
-      <c r="J11" s="57"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="2">
         <f>E5-G5</f>
         <v>1050</v>
@@ -4557,7 +4559,7 @@
         <f>K11+L11</f>
         <v>3000</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="53">
         <f>D11/C11</f>
         <v>0.32500000000000001</v>
       </c>
@@ -4571,11 +4573,11 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B12" s="59" t="s">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="56">
         <f>F9-C11</f>
         <v>300</v>
       </c>
@@ -4583,28 +4585,28 @@
       <c r="E12" s="1"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B13" s="39" t="s">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="N13" s="61">
+      <c r="C13" s="37"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="N13" s="58">
         <f>F10/F9</f>
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.5">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="N14" s="61"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="N14" s="58"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -4656,7 +4658,7 @@
       </c>
       <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -4711,39 +4713,39 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.5">
-      <c r="B17" s="57" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
+      <c r="B17" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="54">
         <f>SUM(C15:C16)</f>
         <v>6300</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="54">
         <f t="shared" ref="D17:F17" si="3">SUM(D15:D16)</f>
         <v>2047.5</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <f t="shared" si="3"/>
         <v>2047.5</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="54">
         <f t="shared" si="3"/>
         <v>10395</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="55">
         <f>H17+I17</f>
         <v>417.375</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="54">
         <f>SUM(H15:H16)</f>
         <v>315</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="54">
         <f t="shared" ref="I17" si="4">SUM(I15:I16)</f>
         <v>102.375</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="2">
         <f>E11-G11</f>
         <v>1552.5</v>
@@ -4756,7 +4758,7 @@
         <f>K17+L17</f>
         <v>3600</v>
       </c>
-      <c r="N17" s="56">
+      <c r="N17" s="53">
         <f>D17/C17</f>
         <v>0.32500000000000001</v>
       </c>
@@ -4769,7 +4771,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
@@ -4781,7 +4783,7 @@
       <c r="E18" s="1"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -4790,10 +4792,10 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -4845,7 +4847,7 @@
       </c>
       <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -4900,7 +4902,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -4957,9 +4959,9 @@
         <f>F22/F16</f>
         <v>1.05</v>
       </c>
-      <c r="Q23" s="55"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="Q23" s="52"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
@@ -4977,10 +4979,10 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>0</v>
       </c>
@@ -5032,7 +5034,7 @@
       </c>
       <c r="P26" s="5"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>1</v>
       </c>
@@ -5087,7 +5089,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
@@ -5144,9 +5146,9 @@
         <f>F27/F22</f>
         <v>1.05</v>
       </c>
-      <c r="Q28" s="54"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="Q28" s="51"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
@@ -5164,10 +5166,10 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>0</v>
       </c>
@@ -5219,7 +5221,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>1</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
@@ -5331,9 +5333,9 @@
         <f>F32/F27</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q33" s="54"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="Q33" s="51"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B34" s="1" t="s">
         <v>2</v>
       </c>
@@ -5351,10 +5353,10 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B36" t="s">
         <v>0</v>
       </c>
@@ -5390,7 +5392,7 @@
       </c>
       <c r="P36" s="5"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>1</v>
       </c>
@@ -5429,7 +5431,7 @@
         <v>1.1000000000000003</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
@@ -5475,7 +5477,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
@@ -5493,7 +5495,7 @@
         <v>0.54545454545454519</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -5506,7 +5508,7 @@
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -5520,7 +5522,7 @@
       <c r="M42" s="2"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5535,13 +5537,13 @@
       <c r="M43" s="1"/>
       <c r="P43" s="5"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -5554,7 +5556,7 @@
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.4">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -5568,7 +5570,7 @@
       <c r="M47" s="2"/>
       <c r="P47" s="5"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5583,13 +5585,13 @@
       <c r="M48" s="1"/>
       <c r="P48" s="5"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -5602,7 +5604,7 @@
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -5616,7 +5618,7 @@
       <c r="M52" s="2"/>
       <c r="P52" s="5"/>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -5631,7 +5633,7 @@
       <c r="M53" s="1"/>
       <c r="P53" s="5"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -5658,73 +5660,73 @@
       <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.05859375" customWidth="1"/>
-    <col min="4" max="4" width="6.76171875" customWidth="1"/>
-    <col min="5" max="5" width="7.46875" customWidth="1"/>
-    <col min="6" max="6" width="9.9375" customWidth="1"/>
-    <col min="7" max="7" width="10.3515625" customWidth="1"/>
-    <col min="8" max="8" width="6.703125" customWidth="1"/>
-    <col min="9" max="9" width="9.8203125" customWidth="1"/>
+    <col min="3" max="3" width="9.07421875" customWidth="1"/>
+    <col min="4" max="4" width="6.765625" customWidth="1"/>
+    <col min="5" max="5" width="7.4609375" customWidth="1"/>
+    <col min="6" max="6" width="9.921875" customWidth="1"/>
+    <col min="7" max="7" width="10.3828125" customWidth="1"/>
+    <col min="8" max="8" width="6.69140625" customWidth="1"/>
+    <col min="9" max="9" width="9.84375" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5859375" customWidth="1"/>
-    <col min="12" max="12" width="8.703125" customWidth="1"/>
-    <col min="13" max="13" width="10.5859375" customWidth="1"/>
-    <col min="14" max="14" width="11.87890625" customWidth="1"/>
-    <col min="15" max="15" width="8.9375" style="3"/>
-    <col min="19" max="19" width="13.29296875" customWidth="1"/>
-    <col min="20" max="20" width="10.17578125" customWidth="1"/>
+    <col min="11" max="11" width="9.61328125" customWidth="1"/>
+    <col min="12" max="12" width="8.69140625" customWidth="1"/>
+    <col min="13" max="13" width="10.61328125" customWidth="1"/>
+    <col min="14" max="14" width="11.84375" customWidth="1"/>
+    <col min="15" max="15" width="8.921875" style="3"/>
+    <col min="19" max="19" width="13.3046875" customWidth="1"/>
+    <col min="20" max="20" width="10.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="K1" s="75" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="K1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
       <c r="O1"/>
-      <c r="Q1" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="75"/>
-    </row>
-    <row r="2" spans="1:20" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="Q1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="72"/>
+    </row>
+    <row r="2" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="67" t="s">
+      <c r="J2" s="27"/>
+      <c r="K2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="27" t="s">
         <v>18</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -5746,45 +5748,45 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="A3" s="73">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="70">
         <v>0.125</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="64">
+      <c r="B3" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="61">
         <v>4000</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="61">
         <v>1000</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="61">
         <v>1000</v>
       </c>
       <c r="F3">
         <f>SUM(C3:E3)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="70">
+      <c r="G3" s="67">
         <f>H3+I3</f>
         <v>500</v>
       </c>
-      <c r="H3" s="70">
+      <c r="H3" s="67">
         <f>C3*$A$3</f>
         <v>500</v>
       </c>
-      <c r="I3" s="70">
-        <v>0</v>
-      </c>
-      <c r="K3" s="62" t="s">
+      <c r="I3" s="67">
+        <v>0</v>
+      </c>
+      <c r="K3" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="63">
+      <c r="L3" s="60">
         <f>D3</f>
         <v>1000</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="59" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="10">
@@ -5803,44 +5805,44 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="61">
         <v>1500</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="61">
         <v>750</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="61">
         <v>750</v>
       </c>
       <c r="F4">
         <f>SUM(C4:E4)</f>
         <v>3000</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="67">
         <f>H4+I4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="67">
         <f>C6-H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="70">
+      <c r="I4" s="67">
         <f>D10-D4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="62" t="s">
+      <c r="K4" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="60">
         <f>D4</f>
         <v>750</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="59" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="10">
@@ -5860,50 +5862,50 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="62">
         <f>SUM(C3:C4)</f>
         <v>5500</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="62">
         <f t="shared" ref="D5:F5" si="0">SUM(D3:D4)</f>
         <v>1750</v>
       </c>
-      <c r="E5" s="65">
+      <c r="E5" s="62">
         <f t="shared" si="0"/>
         <v>1750</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="68">
         <f>H5+I5</f>
         <v>500</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="69">
         <f>SUM(H3:H4)</f>
         <v>500</v>
       </c>
-      <c r="I5" s="72">
+      <c r="I5" s="69">
         <f>SUM(I3:I4)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="60">
         <f>D5</f>
         <v>1750</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="53">
         <f>D5/C5</f>
         <v>0.31818181818181818</v>
       </c>
@@ -5912,18 +5914,18 @@
         <v>0.2413793103448276</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="37">
         <f>F3-C5</f>
         <v>500</v>
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
         <v>19</v>
@@ -5933,10 +5935,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <f>C9/C3-1</f>
         <v>0.125</v>
@@ -5994,7 +5996,7 @@
         <v>8.3333333333333259E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>1</v>
@@ -6050,40 +6052,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="54">
         <f>SUM(C9:C10)</f>
         <v>6000</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="54">
         <f t="shared" ref="D11:F11" si="1">SUM(D9:D10)</f>
         <v>1750</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <f t="shared" si="1"/>
         <v>1750</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="54">
         <f t="shared" si="1"/>
         <v>9500</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="55">
         <f>H11+I11</f>
         <v>500</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="54">
         <f>SUM(H9:H10)</f>
         <v>500</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="54">
         <f t="shared" ref="I11" si="2">SUM(I9:I10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="57"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="2">
         <f>E5-G5</f>
         <v>1250</v>
@@ -6096,7 +6098,7 @@
         <f>K11+L11</f>
         <v>3000</v>
       </c>
-      <c r="N11" s="56">
+      <c r="N11" s="53">
         <f>D11/C11</f>
         <v>0.29166666666666669</v>
       </c>
@@ -6106,12 +6108,12 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="59">
+      <c r="C12" s="56">
         <f>F9-C11</f>
         <v>500</v>
       </c>
@@ -6119,30 +6121,30 @@
       <c r="E12" s="1"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="N13" s="61">
+      <c r="C13" s="37"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="N13" s="58">
         <f>F10/F9</f>
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="N14" s="61"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="N14" s="58"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <f>C15/C9-1</f>
         <v>0.11111111111111116</v>
@@ -6200,7 +6202,7 @@
         <v>7.6923076923076872E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
       <c r="B16" t="s">
         <v>1</v>
@@ -6256,40 +6258,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="54">
         <f>SUM(C15:C16)</f>
         <v>6500</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="54">
         <f t="shared" ref="D17:F17" si="3">SUM(D15:D16)</f>
         <v>1750</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <f t="shared" si="3"/>
         <v>1750</v>
       </c>
-      <c r="F17" s="57">
+      <c r="F17" s="54">
         <f t="shared" si="3"/>
         <v>10000</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="55">
         <f>H17+I17</f>
         <v>500</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="54">
         <f>SUM(H15:H16)</f>
         <v>500</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="54">
         <f t="shared" ref="I17" si="4">SUM(I15:I16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="2">
         <f>E11-G11</f>
         <v>1250</v>
@@ -6302,7 +6304,7 @@
         <f>K17+L17</f>
         <v>3000</v>
       </c>
-      <c r="N17" s="56">
+      <c r="N17" s="53">
         <f>D17/C17</f>
         <v>0.26923076923076922</v>
       </c>
@@ -6312,12 +6314,12 @@
       </c>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="59">
+      <c r="C18" s="56">
         <f>F15-C17</f>
         <v>500</v>
       </c>
@@ -6325,25 +6327,25 @@
       <c r="E18" s="1"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="N19" s="61">
+      <c r="C19" s="37"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="N19" s="58">
         <f>F16/F15</f>
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="5"/>
       <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <f>C21/C15-1</f>
         <v>0.10000000000000009</v>
@@ -6401,7 +6403,7 @@
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="5"/>
       <c r="B22" t="s">
         <v>1</v>
@@ -6457,40 +6459,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="5"/>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="54">
         <f>SUM(C21:C22)</f>
         <v>7000</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="54">
         <f t="shared" ref="D23:F23" si="5">SUM(D21:D22)</f>
         <v>1750</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="54">
         <f t="shared" si="5"/>
         <v>1750</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="54">
         <f t="shared" si="5"/>
         <v>10500</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="55">
         <f>H23+I23</f>
         <v>500</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="54">
         <f>SUM(H21:H22)</f>
         <v>500</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="54">
         <f t="shared" ref="I23" si="6">SUM(I21:I22)</f>
         <v>0</v>
       </c>
-      <c r="J23" s="57"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="2">
         <f>E17-G17</f>
         <v>1250</v>
@@ -6503,7 +6505,7 @@
         <f>K23+L23</f>
         <v>3000</v>
       </c>
-      <c r="N23" s="56">
+      <c r="N23" s="53">
         <f>D23/C23</f>
         <v>0.25</v>
       </c>
@@ -6512,14 +6514,14 @@
         <v>0.2</v>
       </c>
       <c r="P23" s="5"/>
-      <c r="Q23" s="55"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="Q23" s="52"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="56">
         <f>F21-C23</f>
         <v>500</v>
       </c>
@@ -6527,30 +6529,30 @@
       <c r="E24" s="1"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="N25" s="61">
+      <c r="C25" s="37"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="N25" s="58">
         <f>F22/F21</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
       <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <f>C27/C21-1</f>
         <v>9.0909090909090828E-2</v>
@@ -6608,8 +6610,8 @@
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A28" s="74"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A28" s="71"/>
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -6664,40 +6666,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A29" s="74"/>
-      <c r="B29" s="57" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" s="71"/>
+      <c r="B29" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="54">
         <f>SUM(C27:C28)</f>
         <v>7500</v>
       </c>
-      <c r="D29" s="57">
+      <c r="D29" s="54">
         <f t="shared" ref="D29:F29" si="7">SUM(D27:D28)</f>
         <v>1750</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="54">
         <f t="shared" si="7"/>
         <v>1750</v>
       </c>
-      <c r="F29" s="57">
+      <c r="F29" s="54">
         <f t="shared" si="7"/>
         <v>11000</v>
       </c>
-      <c r="G29" s="58">
+      <c r="G29" s="55">
         <f>H29+I29</f>
         <v>1500</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="54">
         <f>SUM(H27:H28)</f>
         <v>500</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="54">
         <f t="shared" ref="I29" si="8">SUM(I27:I28)</f>
         <v>1000</v>
       </c>
-      <c r="J29" s="57"/>
+      <c r="J29" s="54"/>
       <c r="K29" s="2">
         <f>E23-G23</f>
         <v>1250</v>
@@ -6710,7 +6712,7 @@
         <f>K29+L29</f>
         <v>3000</v>
       </c>
-      <c r="N29" s="56">
+      <c r="N29" s="53">
         <f>D29/C29</f>
         <v>0.23333333333333334</v>
       </c>
@@ -6719,14 +6721,14 @@
         <v>0.1891891891891892</v>
       </c>
       <c r="P29" s="5"/>
-      <c r="Q29" s="54"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A30" s="74"/>
-      <c r="B30" s="59" t="s">
+      <c r="Q29" s="51"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A30" s="71"/>
+      <c r="B30" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="56">
         <f>F27-C29</f>
         <v>500</v>
       </c>
@@ -6734,30 +6736,30 @@
       <c r="E30" s="1"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A31" s="74"/>
-      <c r="B31" s="39" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A31" s="71"/>
+      <c r="B31" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="N31" s="61">
+      <c r="C31" s="37"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="N31" s="58">
         <f>F28/F27</f>
         <v>0.375</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A32" s="74"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="N32" s="61"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" s="71"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="N32" s="58"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <f>C33/C27-1</f>
         <v>8.3333333333333259E-2</v>
@@ -6815,8 +6817,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A34" s="74"/>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A34" s="71"/>
       <c r="B34" t="s">
         <v>1</v>
       </c>
@@ -6871,40 +6873,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A35" s="74"/>
-      <c r="B35" s="57" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A35" s="71"/>
+      <c r="B35" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="54">
         <f>SUM(C33:C34)</f>
         <v>8000</v>
       </c>
-      <c r="D35" s="57">
+      <c r="D35" s="54">
         <f t="shared" ref="D35:F35" si="9">SUM(D33:D34)</f>
         <v>1750</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="54">
         <f t="shared" si="9"/>
         <v>1750</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="54">
         <f t="shared" si="9"/>
         <v>11500</v>
       </c>
-      <c r="G35" s="58">
+      <c r="G35" s="55">
         <f>H35+I35</f>
         <v>-250</v>
       </c>
-      <c r="H35" s="57">
+      <c r="H35" s="54">
         <f>SUM(H33:H34)</f>
         <v>500</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="54">
         <f t="shared" ref="I35" si="10">SUM(I33:I34)</f>
         <v>-750</v>
       </c>
-      <c r="J35" s="57"/>
+      <c r="J35" s="54"/>
       <c r="K35" s="2">
         <f>E29-G29</f>
         <v>250</v>
@@ -6917,7 +6919,7 @@
         <f>K35+L35</f>
         <v>2000</v>
       </c>
-      <c r="N35" s="56">
+      <c r="N35" s="53">
         <f>D35/C35</f>
         <v>0.21875</v>
       </c>
@@ -6926,14 +6928,14 @@
         <v>0.17948717948717949</v>
       </c>
       <c r="P35" s="5"/>
-      <c r="Q35" s="54"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A36" s="74"/>
-      <c r="B36" s="59" t="s">
+      <c r="Q35" s="51"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A36" s="71"/>
+      <c r="B36" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="56">
         <f>F33-C35</f>
         <v>500</v>
       </c>
@@ -6941,30 +6943,30 @@
       <c r="E36" s="1"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A37" s="74"/>
-      <c r="B37" s="39" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A37" s="71"/>
+      <c r="B37" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="N37" s="61">
+      <c r="C37" s="37"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="N37" s="58">
         <f>F34/F33</f>
         <v>0.35294117647058826</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A38" s="74"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="N38" s="61"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A38" s="71"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="N38" s="58"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <f>C39/C33-1</f>
         <v>7.6923076923076872E-2</v>
@@ -7022,7 +7024,7 @@
         <v>5.8823529411764719E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>1</v>
       </c>
@@ -7077,39 +7079,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B41" s="57" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B41" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="54">
         <f>SUM(C39:C40)</f>
         <v>8500</v>
       </c>
-      <c r="D41" s="57">
+      <c r="D41" s="54">
         <f t="shared" ref="D41:F41" si="11">SUM(D39:D40)</f>
         <v>1750</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="54">
         <f t="shared" si="11"/>
         <v>1750</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="54">
         <f t="shared" si="11"/>
         <v>12000</v>
       </c>
-      <c r="G41" s="58">
+      <c r="G41" s="55">
         <f>H41+I41</f>
         <v>-250</v>
       </c>
-      <c r="H41" s="57">
+      <c r="H41" s="54">
         <f>SUM(H39:H40)</f>
         <v>500</v>
       </c>
-      <c r="I41" s="57">
+      <c r="I41" s="54">
         <f t="shared" ref="I41" si="12">SUM(I39:I40)</f>
         <v>-750</v>
       </c>
-      <c r="J41" s="57"/>
+      <c r="J41" s="54"/>
       <c r="K41" s="2">
         <f>E35-G35</f>
         <v>2000</v>
@@ -7122,7 +7124,7 @@
         <f>K41+L41</f>
         <v>3750</v>
       </c>
-      <c r="N41" s="56">
+      <c r="N41" s="53">
         <f>D41/C41</f>
         <v>0.20588235294117646</v>
       </c>
@@ -7132,11 +7134,11 @@
       </c>
       <c r="P41" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B42" s="59" t="s">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B42" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="59">
+      <c r="C42" s="56">
         <f>F39-C41</f>
         <v>500</v>
       </c>
@@ -7144,20 +7146,20 @@
       <c r="E42" s="1"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="B43" s="39" t="s">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B43" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="39"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="N43" s="61">
+      <c r="C43" s="37"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="N43" s="58">
         <f>F40/F39</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -7170,7 +7172,7 @@
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -7184,7 +7186,7 @@
       <c r="M45" s="2"/>
       <c r="P45" s="5"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -7199,13 +7201,13 @@
       <c r="M46" s="1"/>
       <c r="P46" s="5"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -7218,7 +7220,7 @@
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -7232,7 +7234,7 @@
       <c r="M50" s="2"/>
       <c r="P50" s="5"/>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -7247,13 +7249,13 @@
       <c r="M51" s="1"/>
       <c r="P51" s="5"/>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -7266,7 +7268,7 @@
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -7280,7 +7282,7 @@
       <c r="M55" s="2"/>
       <c r="P55" s="5"/>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -7295,7 +7297,7 @@
       <c r="M56" s="1"/>
       <c r="P56" s="5"/>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -7322,22 +7324,22 @@
       <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="10" width="11.29296875" customWidth="1"/>
+    <col min="10" max="10" width="11.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -7375,7 +7377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -7397,7 +7399,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <f>C5/C4</f>
         <v>0.375</v>
@@ -7423,7 +7425,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <f>D6/C6</f>
         <v>0.31818181818181818</v>
@@ -7448,7 +7450,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>2</v>
       </c>
@@ -7457,7 +7459,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -7494,7 +7496,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <f>C10/C9</f>
         <v>0.36363636363636365</v>
@@ -7540,7 +7542,7 @@
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <f>D11/C11</f>
         <v>0.31666666666666665</v>
@@ -7589,7 +7591,7 @@
         <v>8.8888888888888795E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -7600,12 +7602,12 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -7642,7 +7644,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <f>C15/C14</f>
         <v>0.35245901639344263</v>
@@ -7688,7 +7690,7 @@
       </c>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <f>D16/C16</f>
         <v>0.31515151515151513</v>
@@ -7737,7 +7739,7 @@
         <v>9.7959183673469452E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -7748,7 +7750,7 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -7785,7 +7787,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20">
         <f>C20/C19</f>
         <v>0.34164222873900291</v>
@@ -7831,7 +7833,7 @@
       </c>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21">
         <f>D21/C21</f>
         <v>0.31366120218579235</v>
@@ -7880,7 +7882,7 @@
         <v>0.10706319702602229</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B22" s="1" t="s">
         <v>2</v>
       </c>
@@ -7891,7 +7893,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -7928,7 +7930,7 @@
         <v>500.00000000000023</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25">
         <f>C25/C24</f>
         <v>0.33133784487246232</v>
@@ -7974,7 +7976,7 @@
       </c>
       <c r="M25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26">
         <f>D26/C26</f>
         <v>0.31221896383186704</v>
@@ -8023,7 +8025,7 @@
         <v>0.11605104096709207</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
@@ -8034,7 +8036,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>0</v>
       </c>
@@ -8071,7 +8073,7 @@
         <v>500.00000000000045</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30">
         <f>C30/C29</f>
         <v>0.3216677369048711</v>
@@ -8117,7 +8119,7 @@
       </c>
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31">
         <f>D31/C31</f>
         <v>0.31084504598299495</v>
@@ -8166,7 +8168,7 @@
         <v>0.12478035864725001</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
@@ -8177,7 +8179,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -8214,7 +8216,7 @@
         <v>500.00000000000045</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35">
         <f>C35/C34</f>
         <v>0.31271977007434054</v>
@@ -8260,7 +8262,7 @@
       </c>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36">
         <f>D36/C36</f>
         <v>0.30955569825398283</v>
@@ -8309,7 +8311,7 @@
         <v>0.13312504012497617</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
@@ -8320,7 +8322,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -8357,7 +8359,7 @@
         <v>500.00000000000045</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40">
         <f>C40/C39</f>
         <v>0.30454726987859626</v>
@@ -8403,7 +8405,7 @@
       </c>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41">
         <f>D41/C41</f>
         <v>0.30836263600991209</v>
@@ -8452,7 +8454,7 @@
         <v>0.14098183562544131</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
@@ -8463,7 +8465,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -8500,7 +8502,7 @@
         <v>500.00000000000182</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45">
         <f>C45/C44</f>
         <v>0.29717144042650118</v>
@@ -8546,7 +8548,7 @@
       </c>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46">
         <f>D46/C46</f>
         <v>0.30727296931714615</v>
@@ -8595,7 +8597,7 @@
         <v>0.14827422967499948</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
@@ -8606,7 +8608,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
         <v>0</v>
       </c>
@@ -8643,7 +8645,7 @@
         <v>500.00000000000227</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
         <f>C50/C49</f>
         <v>0.29058586276032206</v>
@@ -8689,7 +8691,7 @@
       </c>
       <c r="M50" s="5"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51">
         <f>D51/C51</f>
         <v>0.3062895253902001</v>
@@ -8738,7 +8740,7 @@
         <v>0.15495346931225629</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
@@ -8763,236 +8765,235 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.234375" customWidth="1"/>
-    <col min="7" max="7" width="2.64453125" customWidth="1"/>
-    <col min="8" max="8" width="18.41015625" customWidth="1"/>
-    <col min="9" max="9" width="12.5859375" customWidth="1"/>
-    <col min="10" max="11" width="12.64453125" customWidth="1"/>
+    <col min="1" max="1" width="16.23046875" customWidth="1"/>
+    <col min="7" max="7" width="2.61328125" customWidth="1"/>
+    <col min="8" max="8" width="18.3828125" customWidth="1"/>
+    <col min="9" max="11" width="12.61328125" customWidth="1"/>
     <col min="12" max="12" width="15" customWidth="1"/>
-    <col min="14" max="14" width="26.9375" customWidth="1"/>
+    <col min="14" max="14" width="26.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-    </row>
-    <row r="2" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="34" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="39">
         <v>225</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4">
         <v>90</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4">
         <v>60</v>
       </c>
-      <c r="E4" s="52">
+      <c r="E4" s="49">
         <f>B4+C4+D4</f>
         <v>375</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="39">
         <v>100</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5">
         <v>120</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="48">
         <f>B5+C5+D5</f>
         <v>300</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="H5" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="39">
         <v>50</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6">
         <v>90</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6">
         <v>60</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="47">
         <f>B6+C6+D6</f>
         <v>200</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="39" t="s">
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="46">
         <f>SUM(B4:B6)</f>
         <v>375</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="45">
         <f>SUM(C4:C6)</f>
         <v>300</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="44">
         <f>SUM(D4:D6)</f>
         <v>200</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="43">
         <f>B7+C7+D7</f>
         <v>875</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A9" s="34" t="s">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="H9" s="77" t="s">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="H9" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="79"/>
-    </row>
-    <row r="10" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B10" s="45" t="s">
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="76"/>
+    </row>
+    <row r="10" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="44" t="s">
+      <c r="J10" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="39">
         <v>225</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11">
         <f>C4+D4</f>
         <v>150</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="23">
         <f>B11+C11</f>
         <v>375</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11">
         <f>C4</f>
         <v>90</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="40">
         <f>C11-E11</f>
         <v>60</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="39">
         <f>B11+E11</f>
         <v>315</v>
       </c>
@@ -9008,11 +9009,11 @@
         <f>J11-F11</f>
         <v>33.333333333333329</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="4">
         <f>B11+E11+J11</f>
         <v>408.33333333333331</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="41">
         <f>L11/D11</f>
         <v>1.0888888888888888</v>
       </c>
@@ -9020,30 +9021,30 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="39">
         <v>100</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12">
         <f>C5+D5</f>
         <v>200</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="22">
         <f>B12+C12</f>
         <v>300</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12">
         <f>C5</f>
         <v>120</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="40">
         <f>C12-E12</f>
         <v>80</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="39">
         <f>B12+E12</f>
         <v>220</v>
       </c>
@@ -9059,11 +9060,11 @@
         <f>J12-F12</f>
         <v>-14.814814814814824</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="4">
         <f>B12+E12+J12</f>
         <v>285.18518518518516</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="41">
         <f>L12/D12</f>
         <v>0.95061728395061718</v>
       </c>
@@ -9071,30 +9072,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="39">
         <v>50</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13">
         <f>C6+D6</f>
         <v>150</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <f>B13+C13</f>
         <v>200</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13">
         <f>C6</f>
         <v>90</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="40">
         <f>C13-E13</f>
         <v>60</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="39">
         <f>B13+E13</f>
         <v>140</v>
       </c>
@@ -9110,28 +9111,28 @@
         <f>J13-F13</f>
         <v>-18.518518518518519</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="4">
         <f>B13+E13+J13</f>
         <v>181.48148148148147</v>
       </c>
-      <c r="M13" s="40">
+      <c r="M13" s="38">
         <f>L13/D13</f>
         <v>0.90740740740740733</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="39" t="s">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="17">
         <f>SUM(B11:B13)</f>
         <v>375</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="35">
         <f>SUM(C11:C13)</f>
         <v>500</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="35">
         <f>SUM(D11:D13)</f>
         <v>875</v>
       </c>
@@ -9143,7 +9144,7 @@
         <f>SUM(F11:F13)</f>
         <v>200</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="36">
         <f>SUM(H11:H13)</f>
         <v>675</v>
       </c>
@@ -9151,64 +9152,64 @@
         <f>F14/H14</f>
         <v>0.29629629629629628</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="35">
         <f>SUM(J11:J13)</f>
         <v>200</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="35">
         <f>SUM(K11:K13)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="35">
         <f>SUM(L11:L13)</f>
         <v>875</v>
       </c>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" spans="1:14" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="1:14" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A16" s="34" t="s">
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="M15" s="33"/>
+    </row>
+    <row r="16" spans="1:14" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="31" t="str">
+      <c r="C16" s="29" t="str">
         <f>C10</f>
         <v>L(=V+S)</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="28" t="s">
         <v>4</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="27" t="s">
+      <c r="K16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -9216,15 +9217,15 @@
         <f>B11*M11</f>
         <v>244.99999999999997</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17">
         <f>C11</f>
         <v>150</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <f>B17+C17</f>
         <v>395</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="4">
         <f>E11*M12</f>
         <v>85.555555555555543</v>
       </c>
@@ -9258,7 +9259,7 @@
         <v>1.0960605702117592</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -9266,15 +9267,15 @@
         <f>B12*M11</f>
         <v>108.88888888888889</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18">
         <f>C12</f>
         <v>200</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <f>B18+C18</f>
         <v>308.88888888888891</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="4">
         <f>E12*M12</f>
         <v>114.07407407407406</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>0.94540442412425174</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -9316,15 +9317,15 @@
         <f>B13*M11</f>
         <v>54.444444444444443</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19">
         <f>C13</f>
         <v>150</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <f>B19+C19</f>
         <v>204.44444444444446</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="4">
         <f>E13*M12</f>
         <v>85.555555555555543</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>0.89689150751726932</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="17">
         <f>SUM(B17:B19)</f>
         <v>408.33333333333331</v>
@@ -9402,70 +9403,70 @@
       </c>
       <c r="M20" s="12"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H22" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H23" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H24" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="H25" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="33"/>
-    </row>
-    <row r="27" spans="1:13" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="B27" s="32" t="s">
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B27" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="31" t="str">
+      <c r="C27" s="29" t="str">
         <f>C16</f>
         <v>L(=V+S)</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="28" t="s">
+      <c r="G27" s="27"/>
+      <c r="H27" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="L27" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -9473,15 +9474,15 @@
         <f>B17*M17</f>
         <v>268.53483970188097</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28">
         <f>C17</f>
         <v>150</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="23">
         <f>B28+C28</f>
         <v>418.53483970188097</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="4">
         <f>E17*$M$12</f>
         <v>81.33058984910835</v>
       </c>
@@ -9515,7 +9516,7 @@
         <v>1.1021780470352684</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -9523,15 +9524,15 @@
         <f>B18*M17</f>
         <v>119.34881764528043</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29">
         <f>C18</f>
         <v>200</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="22">
         <f>B29+C29</f>
         <v>319.34881764528041</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="4">
         <f>E18*$M$12</f>
         <v>108.4407864654778</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>0.9404829520100928</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9573,15 +9574,15 @@
         <f>B19*M17</f>
         <v>59.674408822640217</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30">
         <f>C19</f>
         <v>150</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <f>B30+C30</f>
         <v>209.6744088226402</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="4">
         <f>E19*$M$12</f>
         <v>81.33058984910835</v>
       </c>
@@ -9615,7 +9616,7 @@
         <v>0.88668920654146366</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="17">
         <f>SUM(B28:B30)</f>
         <v>447.55806616980158</v>
@@ -9659,17 +9660,17 @@
       </c>
       <c r="M31" s="12"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H35" t="s">
         <v>26</v>
       </c>

--- a/supplementary/Expanded Reproduction/Expanded Reproduction Only.xlsx
+++ b/supplementary/Expanded Reproduction/Expanded Reproduction Only.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afree\Documents\My Works\REPOS\simulation-api\supplementary\Expanded Reproduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4197F320-6AD7-4109-B37B-555BA85B9807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9CB03D-169E-4BEA-A60D-798CED2F3EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1286" yWindow="1011" windowWidth="8931" windowHeight="9635" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{C55A22BB-D4E7-40F3-AC2B-802623670D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Marx 1" sheetId="4" r:id="rId1"/>
@@ -1085,7 +1085,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1093,7 +1093,7 @@
     <col min="3" max="3" width="9.07421875" customWidth="1"/>
     <col min="4" max="4" width="6.765625" customWidth="1"/>
     <col min="5" max="5" width="7.4609375" customWidth="1"/>
-    <col min="6" max="6" width="7.23046875" customWidth="1"/>
+    <col min="6" max="6" width="7.61328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.3828125" customWidth="1"/>
     <col min="8" max="8" width="6.69140625" customWidth="1"/>
     <col min="9" max="9" width="6.23046875" customWidth="1"/>
